--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="215">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,12 +928,20 @@
     <t>&lt;&gt;버튼 클릭시 사진을 한장씩 밀며 화면에 제공된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>여행리스트 담기 버튼을 클릭하면 여행리스트 담기 Modal이 나타난다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭시 [삭제여부를 묻는 알림창]이 나타난다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1006,6 +1014,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1436,7 +1451,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,8 +1470,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,6 +1562,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,11 +1604,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1607,23 +1652,29 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1631,44 +1682,32 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1679,27 +1718,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1709,12 +1727,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 2 2" xfId="2"/>
     <cellStyle name="표준 3 2" xfId="3"/>
+    <cellStyle name="표준 4" xfId="6"/>
     <cellStyle name="표준 5" xfId="4"/>
     <cellStyle name="표준 6" xfId="5"/>
   </cellStyles>
@@ -2031,10 +2059,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2045,43 +2073,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2092,29 +2120,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2125,50 +2153,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2179,35 +2207,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2216,7 +2244,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2225,8 +2253,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2234,15 +2262,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2250,15 +2278,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2266,17 +2294,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2287,36 +2315,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="41" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="42" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2327,57 +2355,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="29" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2388,50 +2416,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="29" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2442,50 +2470,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
-      <c r="B59" s="42" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="29" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2496,66 +2524,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2563,43 +2591,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="43"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="43"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="43"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="43"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="29"/>
-      <c r="B74" s="42" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2607,22 +2635,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="42" t="s">
+      <c r="A77" s="30"/>
+      <c r="B77" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2630,52 +2658,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2683,36 +2711,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="30"/>
+      <c r="B89" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -2720,15 +2748,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="30"/>
+      <c r="B91" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2736,14 +2764,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2752,8 +2780,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="40" t="s">
+      <c r="A94" s="30"/>
+      <c r="B94" s="41" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -2761,36 +2789,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="29"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="29"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="29"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2799,14 +2827,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2823,6 +2843,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2832,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2845,21 +2873,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
@@ -2869,76 +2897,76 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>120</v>
@@ -2948,73 +2976,73 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="50" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="50" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>120</v>
@@ -3024,91 +3052,91 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="50" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="74"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="66" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15" t="s">
         <v>120</v>
@@ -3118,64 +3146,64 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="66" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="68"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15" t="s">
         <v>120</v>
@@ -3185,67 +3213,67 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="70"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="50" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
     </row>
     <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="66" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
     </row>
     <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
@@ -3261,14 +3289,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="64"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="70"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3278,29 +3306,29 @@
       <c r="B45" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="25"/>
       <c r="B46" s="28"/>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
@@ -3313,21 +3341,21 @@
     </row>
     <row r="49" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="66" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
     </row>
     <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="57"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15" t="s">
         <v>120</v>
@@ -3337,49 +3365,49 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="70"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="45"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="50" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="50" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="18" t="s">
         <v>123</v>
       </c>
@@ -3389,21 +3417,21 @@
     </row>
     <row r="57" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="66" t="s">
+      <c r="B58" s="63"/>
+      <c r="C58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="66"/>
     </row>
     <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15" t="s">
         <v>120</v>
@@ -3413,58 +3441,58 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="64"/>
+      <c r="D60" s="60"/>
       <c r="E60" s="70"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="45"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="50" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="45"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="50" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
     </row>
     <row r="64" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="50" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="49"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="18" t="s">
         <v>123</v>
       </c>
@@ -3474,21 +3502,21 @@
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="66" t="s">
+      <c r="B67" s="63"/>
+      <c r="C67" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="68"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="66"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="68"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15" t="s">
         <v>120</v>
@@ -3498,82 +3526,82 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="57"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="64"/>
+      <c r="D69" s="60"/>
       <c r="E69" s="70"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="45"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="50" t="s">
+      <c r="A71" s="54"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="52"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="45"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="50" t="s">
+      <c r="A72" s="54"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50" t="s">
+      <c r="A73" s="54"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="52"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="46"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="61"/>
     </row>
     <row r="75" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="59"/>
-      <c r="C76" s="66" t="s">
+      <c r="B76" s="63"/>
+      <c r="C76" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="67"/>
-      <c r="E76" s="68"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="66"/>
     </row>
     <row r="77" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="57"/>
+      <c r="B77" s="68"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15" t="s">
         <v>120</v>
@@ -3583,82 +3611,82 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="57"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="64"/>
+      <c r="D78" s="60"/>
       <c r="E78" s="70"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="45"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="50" t="s">
+      <c r="A80" s="54"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="52"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="49"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="45"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="50" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="52"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="49"/>
     </row>
     <row r="82" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="50" t="s">
+      <c r="A82" s="54"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D82" s="51"/>
-      <c r="E82" s="52"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="49"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="65"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
     </row>
     <row r="84" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="58" t="s">
+      <c r="A85" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="66" t="s">
+      <c r="B85" s="63"/>
+      <c r="C85" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="67"/>
-      <c r="E85" s="68"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="66"/>
     </row>
     <row r="86" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="56" t="s">
+      <c r="A86" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="57"/>
+      <c r="B86" s="68"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15" t="s">
         <v>120</v>
@@ -3668,392 +3696,459 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B87" s="57"/>
+      <c r="B87" s="68"/>
       <c r="C87" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="64"/>
+      <c r="D87" s="60"/>
       <c r="E87" s="70"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="47" t="s">
+      <c r="B88" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="79"/>
-      <c r="E88" s="80"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="73"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="45"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="71" t="s">
+      <c r="A89" s="54"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="73"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="80"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="45"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="71" t="s">
+      <c r="A90" s="54"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="72"/>
-      <c r="E90" s="73"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="80"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="45"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="71" t="s">
+      <c r="A91" s="54"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="80"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="45"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="71" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="85"/>
+      <c r="E92" s="86"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="54"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="D92" s="72"/>
-      <c r="E92" s="73"/>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="81" t="s">
+      <c r="D93" s="79"/>
+      <c r="E93" s="80"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="54"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="83"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
-      <c r="B94" s="18" t="s">
+      <c r="D94" s="82"/>
+      <c r="E94" s="83"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="55"/>
+      <c r="B95" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="65"/>
-    </row>
-    <row r="96" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="58" t="s">
+      <c r="C95" s="59"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="61"/>
+    </row>
+    <row r="97" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="66" t="s">
+      <c r="B98" s="63"/>
+      <c r="C98" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="68"/>
-    </row>
-    <row r="98" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+      <c r="D98" s="65"/>
+      <c r="E98" s="66"/>
+    </row>
+    <row r="99" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15" t="s">
+      <c r="B99" s="68"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E99" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="s">
+    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="69" t="s">
+      <c r="B100" s="68"/>
+      <c r="C100" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="D99" s="64"/>
-      <c r="E99" s="70"/>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="44" t="s">
+      <c r="D100" s="60"/>
+      <c r="E100" s="70"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B101" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C101" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="62"/>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="45"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="50" t="s">
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="54"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="52"/>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="45"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="50" t="s">
+      <c r="D102" s="48"/>
+      <c r="E102" s="49"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="54"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="51"/>
-      <c r="E102" s="52"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="45"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="50" t="s">
+      <c r="D103" s="48"/>
+      <c r="E103" s="49"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="54"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="52"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="45"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="50" t="s">
+      <c r="D104" s="48"/>
+      <c r="E104" s="49"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="54"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="52"/>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="45"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="50" t="s">
+      <c r="D105" s="48"/>
+      <c r="E105" s="49"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="54"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105" s="52"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="45"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="50" t="s">
+      <c r="D106" s="48"/>
+      <c r="E106" s="49"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="54"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="52"/>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="45"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="50" t="s">
+      <c r="D107" s="48"/>
+      <c r="E107" s="49"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="54"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="52"/>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="45"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="50" t="s">
+      <c r="D108" s="48"/>
+      <c r="E108" s="49"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="54"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D108" s="51"/>
-      <c r="E108" s="52"/>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="45"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="50" t="s">
+      <c r="D109" s="48"/>
+      <c r="E109" s="49"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="54"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D109" s="51"/>
-      <c r="E109" s="52"/>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="45"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="50" t="s">
+      <c r="D110" s="48"/>
+      <c r="E110" s="49"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="54"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="51"/>
-      <c r="E110" s="52"/>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="45"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="50" t="s">
+      <c r="D111" s="48"/>
+      <c r="E111" s="49"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="54"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D111" s="51"/>
-      <c r="E111" s="52"/>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="45"/>
-      <c r="B112" s="48"/>
-      <c r="C112" s="50" t="s">
+      <c r="D112" s="48"/>
+      <c r="E112" s="49"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="54"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="51"/>
-      <c r="E112" s="52"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="45"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="50" t="s">
+      <c r="D113" s="48"/>
+      <c r="E113" s="49"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="54"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D113" s="51"/>
-      <c r="E113" s="52"/>
-    </row>
-    <row r="114" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="45"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="53" t="s">
+      <c r="D114" s="48"/>
+      <c r="E114" s="49"/>
+    </row>
+    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="54"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="55"/>
-    </row>
-    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="46"/>
-      <c r="B115" s="18" t="s">
+      <c r="D115" s="51"/>
+      <c r="E115" s="52"/>
+    </row>
+    <row r="116" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="55"/>
+      <c r="B116" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="63"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="65"/>
-    </row>
-    <row r="116" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="58" t="s">
+      <c r="C116" s="59"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="61"/>
+    </row>
+    <row r="117" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="59"/>
-      <c r="C117" s="66" t="s">
+      <c r="B118" s="63"/>
+      <c r="C118" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D117" s="67"/>
-      <c r="E117" s="68"/>
-    </row>
-    <row r="118" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="56" t="s">
+      <c r="D118" s="65"/>
+      <c r="E118" s="66"/>
+    </row>
+    <row r="119" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="57"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="15" t="s">
+      <c r="B119" s="68"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E119" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="56" t="s">
+    <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="57"/>
-      <c r="C119" s="69" t="s">
+      <c r="B120" s="68"/>
+      <c r="C120" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="64"/>
-      <c r="E119" s="70"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="44" t="s">
+      <c r="D120" s="60"/>
+      <c r="E120" s="70"/>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="47" t="s">
+      <c r="B121" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="60" t="s">
+      <c r="C121" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="D120" s="61"/>
-      <c r="E120" s="62"/>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="45"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="50" t="s">
+      <c r="D121" s="45"/>
+      <c r="E121" s="46"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="54"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D121" s="51"/>
-      <c r="E121" s="52"/>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="45"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="50" t="s">
+      <c r="D122" s="48"/>
+      <c r="E122" s="49"/>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="54"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D122" s="51"/>
-      <c r="E122" s="52"/>
-    </row>
-    <row r="123" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="45"/>
-      <c r="B123" s="49"/>
-      <c r="C123" s="53" t="s">
+      <c r="D123" s="48"/>
+      <c r="E123" s="49"/>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="54"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" s="85"/>
+      <c r="E124" s="86"/>
+    </row>
+    <row r="125" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="54"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="D123" s="54"/>
-      <c r="E123" s="55"/>
-    </row>
-    <row r="124" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="46"/>
-      <c r="B124" s="18" t="s">
+      <c r="D125" s="51"/>
+      <c r="E125" s="52"/>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="55"/>
+      <c r="B126" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="63"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="65"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="A100:A115"/>
-    <mergeCell ref="B100:B114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B123"/>
+  <mergeCells count="159">
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
     <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
     <mergeCell ref="C83:E83"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:E67"/>
@@ -4078,101 +4173,54 @@
     <mergeCell ref="C80:E80"/>
     <mergeCell ref="C81:E81"/>
     <mergeCell ref="C82:E82"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="A100:B100"/>
     <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="A101:A116"/>
+    <mergeCell ref="B101:B115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
     <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서_최종" sheetId="43" r:id="rId1"/>
     <sheet name="여행지" sheetId="44" r:id="rId2"/>
+    <sheet name="Modal" sheetId="45" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -777,10 +778,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기를 좌측부터 차례로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역 여행지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -841,10 +838,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기를 좌측부터 차례로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역별 축제는 Select Bar 형식으로 보여진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -869,10 +862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역 축제 페이지는 축제들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기를 좌측부터 차례로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기간별 축제는 회전목마 형태로 구성된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -893,18 +882,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상단에는 [&lt;*월&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중인 축제는 회전목마 형태로 구성된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상단에는 [&lt;진행중&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[&lt;진행중&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -913,19 +894,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상단에는 [&lt;진행예정&gt;버튼]방식, 하단에는 축제사진(1장)으로 구성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[&lt;진행예정&gt;버튼] 클릭시 축제 사진이 변경된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지역-여행 Select Bar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&gt;버튼 클릭시 사진을 한장씩 밀며 화면에 제공된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -935,13 +908,278 @@
   <si>
     <t>삭제 버튼 클릭시 [삭제여부를 묻는 알림창]이 나타난다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 코스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지,축제 상세페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 여행지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절별 여행지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그 해당 여행지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행예정 축제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;*월&gt;버튼]방식 좌측에는 내 여행리스트 담기 버튼, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 축제 페이지는 축제들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;진행중&gt;버튼]방식 좌측에는 내 여행리스트 담기 버튼, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단에는 [&lt;진행예정&gt;버튼]방식 좌측에는 내 여행리스트 담기 버튼, 하단에는 축제사진(1장)으로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 여행지 페이지는 여행지들을 썸네일 형태의 사진(1개)짧은 글(50자내외), 내 여행리스트에 담기버튼을 좌측부터 차례로 구성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 좌측에는 내 여행리스트 담기 버튼이 제공된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;계절&gt;버튼] 클릭시 사진을 한장씩 밀며 화면에 제공된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더추가 클릭시 폴더만들기Modal이 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택버튼 클릭시 게시물이 해당 폴더에 저장된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal 실행 순서(Modal 2개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal 사용란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 여행리스트 담기 클릭 -&gt; Modal - Modal(상,중,하 로구성)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">중간: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폴더가 리스트형태로 존재하고, 각 리스트, 폴더에는 선택버튼이 존재한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하단:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 폴더추가가 존재한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">폴더만들기 Modal은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상단:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"폴더만들기"제목, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중간:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 폴더명 작성란, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하단: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인버튼 존재</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더만들기-제목 미입력후 확인시 "입력필요합니다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택버튼 클릭시, 1. 해당 게시물 선택클릭 x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              ="담기가 완료되었습니다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        2. 해당 게시물 선택클릭O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              "이미 담긴 게시물입니다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상단:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "내 여행 리스트 담기"제목, X버튼이 보여진다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1021,8 +1259,64 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,8 +1335,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1450,8 +1754,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,8 +1805,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1562,9 +1900,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1604,7 +1939,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,14 +2005,47 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1634,60 +2056,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1697,27 +2065,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1727,17 +2074,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
+    <cellStyle name="보통" xfId="7" builtinId="28"/>
+    <cellStyle name="입력" xfId="8" builtinId="20"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 2 2" xfId="2"/>
@@ -2059,10 +2438,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2073,43 +2452,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2120,29 +2499,29 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2153,50 +2532,50 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2207,35 +2586,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2244,7 +2623,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2253,8 +2632,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="29" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2262,15 +2641,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2278,15 +2657,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2294,17 +2673,17 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="42" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2315,36 +2694,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="41" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2355,57 +2734,57 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="30"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
-      <c r="B41" s="42"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="30"/>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="42" t="s">
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2416,50 +2795,50 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="29" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2470,50 +2849,50 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="30"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="30"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="30"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="30"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="42" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2524,66 +2903,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="30"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="30"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="30"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="30"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="30"/>
-      <c r="B65" s="29"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="30"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="30"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2591,43 +2970,43 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="30"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="43"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="30"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="43"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="30"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="43"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="30"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="43"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="30"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="30"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -2635,22 +3014,22 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="30"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="30"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="30"/>
-      <c r="B77" s="29" t="s">
+      <c r="A77" s="29"/>
+      <c r="B77" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2658,52 +3037,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="30"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="30"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="30"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="30"/>
-      <c r="B81" s="29"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="30"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2711,36 +3090,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="30"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="30"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="30"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="30"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="30"/>
-      <c r="B89" s="36" t="s">
+      <c r="A89" s="29"/>
+      <c r="B89" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -2748,15 +3127,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="30"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="30"/>
-      <c r="B91" s="39" t="s">
+      <c r="A91" s="29"/>
+      <c r="B91" s="38" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2764,14 +3143,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="30"/>
-      <c r="B92" s="40"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="30"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -2780,8 +3159,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="30"/>
-      <c r="B94" s="41" t="s">
+      <c r="A94" s="29"/>
+      <c r="B94" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -2789,36 +3168,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="30"/>
-      <c r="B95" s="41"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="30"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="30"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="30"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="30"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="30"/>
+      <c r="B109" s="29"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2827,6 +3206,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -2843,14 +3230,6 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2873,176 +3252,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>120</v>
@@ -3052,1028 +3431,1143 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="70"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="47" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="71"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="73"/>
+      <c r="B26" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="70"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="57"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B31" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C31" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="50" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="18" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="57"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="71"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67" t="s">
+      <c r="B43" s="67"/>
+      <c r="C43" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E44" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="57"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="61" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="70"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="54"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-    </row>
-    <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="70"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26"/>
+      <c r="B49" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="65"/>
+      <c r="C53" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="54"/>
+      <c r="E53" s="57"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="71"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="71"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="52"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72"/>
+      <c r="B57" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="67"/>
+      <c r="C59" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="59"/>
+      <c r="E59" s="60"/>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="65"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="65"/>
+      <c r="C61" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="54"/>
+      <c r="E61" s="57"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="62"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="71"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="71"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="71"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="67"/>
+      <c r="C68" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="59"/>
+      <c r="E68" s="60"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="65"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="65"/>
+      <c r="C70" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="54"/>
+      <c r="E70" s="57"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="62"/>
+      <c r="E71" s="63"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="71"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="71"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="18" t="s">
+      <c r="D73" s="51"/>
+      <c r="E73" s="52"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="71"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="52"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="72"/>
+      <c r="B75" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="55"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64" t="s">
+      <c r="B77" s="67"/>
+      <c r="C77" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
+      <c r="D77" s="59"/>
+      <c r="E77" s="60"/>
+    </row>
+    <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15" t="s">
+      <c r="B78" s="65"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="67" t="s">
+      <c r="E78" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="70"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="53" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="57"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B80" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="54"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="47" t="s">
+      <c r="C80" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="62"/>
+      <c r="E80" s="63"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="71"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="51"/>
+      <c r="E81" s="52"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="71"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="51"/>
+      <c r="E82" s="52"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="71"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="18" t="s">
+      <c r="D83" s="51"/>
+      <c r="E83" s="52"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="72"/>
+      <c r="B84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62" t="s">
+      <c r="C84" s="53"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="55"/>
+    </row>
+    <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
+      <c r="B86" s="67"/>
+      <c r="C86" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="59"/>
+      <c r="E86" s="60"/>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15" t="s">
+      <c r="B87" s="65"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="67" t="s">
+      <c r="E87" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="70"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="53" t="s">
+      <c r="B88" s="65"/>
+      <c r="C88" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="54"/>
+      <c r="E88" s="57"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B89" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="54"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-    </row>
-    <row r="64" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="49"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
-      <c r="B65" s="18" t="s">
+      <c r="C89" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="82"/>
+      <c r="E89" s="83"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="71"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="71"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="45"/>
+      <c r="E91" s="46"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="71"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="71"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="71"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="71"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" s="85"/>
+      <c r="E95" s="86"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="72"/>
+      <c r="B96" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62" t="s">
+      <c r="C96" s="53"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="55"/>
+    </row>
+    <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="66"/>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="67" t="s">
+      <c r="B99" s="67"/>
+      <c r="C99" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="59"/>
+      <c r="E99" s="60"/>
+    </row>
+    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
+      <c r="B100" s="65"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="67" t="s">
+      <c r="E100" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="70"/>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53" t="s">
+      <c r="B101" s="65"/>
+      <c r="C101" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="54"/>
+      <c r="E101" s="57"/>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B102" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="48"/>
-      <c r="E72" s="49"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55"/>
-      <c r="B74" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="61"/>
-    </row>
-    <row r="75" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
-    </row>
-    <row r="77" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="68"/>
-      <c r="C78" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="70"/>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="54"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="D80" s="48"/>
-      <c r="E80" s="49"/>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="54"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="48"/>
-      <c r="E81" s="49"/>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" s="48"/>
-      <c r="E82" s="49"/>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
-      <c r="B83" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
-    </row>
-    <row r="84" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="65"/>
-      <c r="E85" s="66"/>
-    </row>
-    <row r="86" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" s="68"/>
-      <c r="C87" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="70"/>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="72"/>
-      <c r="E88" s="73"/>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="54"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="80"/>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="54"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="79"/>
-      <c r="E90" s="80"/>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="54"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" s="79"/>
-      <c r="E91" s="80"/>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="54"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="85"/>
-      <c r="E92" s="86"/>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="54"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="79"/>
-      <c r="E93" s="80"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" s="82"/>
-      <c r="E94" s="83"/>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="55"/>
-      <c r="B95" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="59"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="61"/>
-    </row>
-    <row r="97" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B98" s="63"/>
-      <c r="C98" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-    </row>
-    <row r="99" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="68"/>
-      <c r="C100" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="70"/>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" s="44" t="s">
+      <c r="C102" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D101" s="45"/>
-      <c r="E101" s="46"/>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="54"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="47" t="s">
+      <c r="D102" s="62"/>
+      <c r="E102" s="63"/>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="71"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="48"/>
-      <c r="E102" s="49"/>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="54"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="47" t="s">
+      <c r="D103" s="51"/>
+      <c r="E103" s="52"/>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="71"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D103" s="48"/>
-      <c r="E103" s="49"/>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="54"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="47" t="s">
+      <c r="D104" s="51"/>
+      <c r="E104" s="52"/>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="71"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D104" s="48"/>
-      <c r="E104" s="49"/>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="54"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="47" t="s">
+      <c r="D105" s="51"/>
+      <c r="E105" s="52"/>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="71"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D105" s="48"/>
-      <c r="E105" s="49"/>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="54"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="47" t="s">
+      <c r="D106" s="51"/>
+      <c r="E106" s="52"/>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="71"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D106" s="48"/>
-      <c r="E106" s="49"/>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="54"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="47" t="s">
+      <c r="D107" s="51"/>
+      <c r="E107" s="52"/>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="71"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D107" s="48"/>
-      <c r="E107" s="49"/>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="54"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="47" t="s">
+      <c r="D108" s="51"/>
+      <c r="E108" s="52"/>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="71"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D108" s="48"/>
-      <c r="E108" s="49"/>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="54"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="47" t="s">
+      <c r="D109" s="51"/>
+      <c r="E109" s="52"/>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="71"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D109" s="48"/>
-      <c r="E109" s="49"/>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="54"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="47" t="s">
+      <c r="D110" s="51"/>
+      <c r="E110" s="52"/>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="71"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D110" s="48"/>
-      <c r="E110" s="49"/>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="54"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="47" t="s">
+      <c r="D111" s="51"/>
+      <c r="E111" s="52"/>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="71"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D111" s="48"/>
-      <c r="E111" s="49"/>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="47" t="s">
+      <c r="D112" s="51"/>
+      <c r="E112" s="52"/>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="71"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D112" s="48"/>
-      <c r="E112" s="49"/>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="54"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="47" t="s">
+      <c r="D113" s="51"/>
+      <c r="E113" s="52"/>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="71"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D113" s="48"/>
-      <c r="E113" s="49"/>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="47" t="s">
+      <c r="D114" s="51"/>
+      <c r="E114" s="52"/>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="71"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="50" t="s">
         <v>161</v>
-      </c>
-      <c r="D114" s="48"/>
-      <c r="E114" s="49"/>
-    </row>
-    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="50" t="s">
-        <v>162</v>
       </c>
       <c r="D115" s="51"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
-      <c r="B116" s="18" t="s">
+      <c r="A116" s="71"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="79"/>
+      <c r="E116" s="80"/>
+    </row>
+    <row r="117" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="72"/>
+      <c r="B117" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C116" s="59"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="61"/>
-    </row>
-    <row r="117" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="62" t="s">
+      <c r="C117" s="53"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="55"/>
+    </row>
+    <row r="118" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="63"/>
-      <c r="C118" s="64" t="s">
+      <c r="B119" s="67"/>
+      <c r="C119" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-    </row>
-    <row r="119" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="67" t="s">
+      <c r="D119" s="59"/>
+      <c r="E119" s="60"/>
+    </row>
+    <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="68"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15" t="s">
+      <c r="B120" s="65"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E120" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="67" t="s">
+    <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="68"/>
-      <c r="C120" s="69" t="s">
+      <c r="B121" s="65"/>
+      <c r="C121" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="60"/>
-      <c r="E120" s="70"/>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="53" t="s">
+      <c r="D121" s="54"/>
+      <c r="E121" s="57"/>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="56" t="s">
+      <c r="B122" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C122" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D121" s="45"/>
-      <c r="E121" s="46"/>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="47" t="s">
+      <c r="D122" s="62"/>
+      <c r="E122" s="63"/>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="71"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D122" s="48"/>
-      <c r="E122" s="49"/>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="47" t="s">
+      <c r="D123" s="51"/>
+      <c r="E123" s="52"/>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="71"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="D123" s="48"/>
-      <c r="E123" s="49"/>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" s="85"/>
-      <c r="E124" s="86"/>
-    </row>
-    <row r="125" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="50" t="s">
+      <c r="D124" s="51"/>
+      <c r="E124" s="52"/>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="71"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" s="48"/>
+      <c r="E125" s="49"/>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="71"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="D125" s="51"/>
-      <c r="E125" s="52"/>
-    </row>
-    <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
-      <c r="B126" s="18" t="s">
+      <c r="D126" s="79"/>
+      <c r="E126" s="80"/>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="72"/>
+      <c r="B127" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="59"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="61"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="160">
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="A102:A117"/>
+    <mergeCell ref="B102:B116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C95:E95"/>
     <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
     <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A18:B18"/>
@@ -4092,138 +4586,190 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C84:E84"/>
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="C114:E114"/>
     <mergeCell ref="C115:E115"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C101:E101"/>
     <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="A101:A116"/>
-    <mergeCell ref="B101:B115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="73.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="99"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="99"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="99"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="99"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="98"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="89"/>
+      <c r="C12" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="89"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="89"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="89"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="89"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="89"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="89"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="89"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="89"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="89"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="89"/>
+    </row>
+    <row r="18" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="90"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="90"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열.xlsx
+++ b/doc/요구사항정의서 및 명세서/요구사항_합본2_team2_최경열.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="241">
   <si>
     <t>지역별로 여행지를 제공한다</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -986,10 +986,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Modal 실행 순서(Modal 2개)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Modal 사용란</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1172,6 +1168,14 @@
       </rPr>
       <t xml:space="preserve"> "내 여행 리스트 담기"제목, X버튼이 보여진다.</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 여행리스트 담기 클릭시 Modal 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal 구성(Modal 2개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1900,6 +1904,48 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1939,11 +1985,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1954,6 +2087,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1962,156 +2116,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="8">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2438,7 +2442,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="46" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -2452,42 +2456,42 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="42" t="s">
         <v>101</v>
       </c>
@@ -2499,28 +2503,28 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="42" t="s">
         <v>102</v>
       </c>
@@ -2532,49 +2536,49 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="42"/>
       <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="42"/>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="42"/>
       <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="42"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="42"/>
       <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
@@ -2586,35 +2590,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
@@ -2623,7 +2627,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
@@ -2632,7 +2636,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="42" t="s">
         <v>9</v>
       </c>
@@ -2641,15 +2645,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="42"/>
       <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2657,15 +2661,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2673,14 +2677,14 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="42" t="s">
@@ -2694,36 +2698,36 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="42"/>
       <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="42"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="42"/>
       <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="42"/>
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="41" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="55" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2734,56 +2738,56 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="42" t="s">
         <v>106</v>
       </c>
@@ -2795,49 +2799,49 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="42"/>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="42"/>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="42"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="42"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="42"/>
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="42"/>
       <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="42" t="s">
         <v>107</v>
       </c>
@@ -2849,49 +2853,49 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="42"/>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="42"/>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="42"/>
       <c r="C55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="42"/>
       <c r="C56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="42"/>
       <c r="C57" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="42"/>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="42" t="s">
         <v>108</v>
       </c>
@@ -2903,66 +2907,66 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="42"/>
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="42"/>
       <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="42"/>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="42"/>
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="42"/>
       <c r="C64" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="42"/>
       <c r="C65" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="42"/>
       <c r="C66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="42"/>
       <c r="C67" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2970,42 +2974,42 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="29"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="29"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="29"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="42" t="s">
         <v>25</v>
       </c>
@@ -3014,21 +3018,21 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="29"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="42"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="42"/>
       <c r="C76" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="42" t="s">
         <v>17</v>
       </c>
@@ -3037,52 +3041,52 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="29"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="42"/>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="29"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="42"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="29"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="42"/>
       <c r="C80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="29"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="42"/>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="29"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="42"/>
       <c r="C82" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="29"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="42"/>
       <c r="C83" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3090,36 +3094,36 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="29"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="29"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="29"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="29"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -3127,15 +3131,15 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="29"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3143,14 +3147,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
@@ -3159,8 +3163,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="40" t="s">
+      <c r="A94" s="43"/>
+      <c r="B94" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3168,36 +3172,36 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="29"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="29"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="29"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -3206,14 +3210,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="A32:A67"/>
     <mergeCell ref="A68:A83"/>
@@ -3230,6 +3226,14 @@
     <mergeCell ref="B52:B58"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3241,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E22"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112:E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3252,21 +3256,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
         <v>120</v>
@@ -3276,76 +3280,76 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="G5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="58" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
         <v>120</v>
@@ -3355,73 +3359,73 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="50" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="50" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
         <v>120</v>
@@ -3431,100 +3435,100 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="71"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="50" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="50" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="58" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
         <v>120</v>
@@ -3534,64 +3538,64 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="56" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="77"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="78" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="58" t="s">
+      <c r="B35" s="70"/>
+      <c r="C35" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15" t="s">
         <v>120</v>
@@ -3601,67 +3605,67 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="56" t="s">
+      <c r="B37" s="75"/>
+      <c r="C37" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="77"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="50" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="50" t="s">
+      <c r="A40" s="61"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="58" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="73"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -3677,15 +3681,15 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="56" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="57"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="77"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
@@ -3694,29 +3698,29 @@
       <c r="B46" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="83"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
@@ -3729,21 +3733,21 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="58" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15" t="s">
         <v>120</v>
@@ -3753,49 +3757,49 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="56" t="s">
+      <c r="B53" s="75"/>
+      <c r="C53" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="57"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="77"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="83"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="50" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="83"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="71"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="50" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="83"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="18" t="s">
         <v>123</v>
       </c>
@@ -3805,21 +3809,21 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="58" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="73"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="65"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15" t="s">
         <v>120</v>
@@ -3829,58 +3833,58 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="56" t="s">
+      <c r="B61" s="75"/>
+      <c r="C61" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="57"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="77"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="62"/>
-      <c r="E62" s="63"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="50" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="83"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="50" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="83"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="71"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="50" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="83"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="72"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="18" t="s">
         <v>123</v>
       </c>
@@ -3890,21 +3894,21 @@
     </row>
     <row r="67" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="58" t="s">
+      <c r="B68" s="70"/>
+      <c r="C68" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="65"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
         <v>120</v>
@@ -3914,82 +3918,82 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="56" t="s">
+      <c r="B70" s="75"/>
+      <c r="C70" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="57"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="77"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="63"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="80"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="50" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="83"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="71"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="50" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="52"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="83"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="71"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="50" t="s">
+      <c r="A74" s="61"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="52"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="83"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="72"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="55"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="68"/>
     </row>
     <row r="76" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="66" t="s">
+      <c r="A77" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="58" t="s">
+      <c r="B77" s="70"/>
+      <c r="C77" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D77" s="59"/>
-      <c r="E77" s="60"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
     </row>
     <row r="78" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="65"/>
+      <c r="B78" s="75"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15" t="s">
         <v>120</v>
@@ -3999,82 +4003,82 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="56" t="s">
+      <c r="B79" s="75"/>
+      <c r="C79" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="57"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="77"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C80" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="63"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="80"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="71"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="50" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="52"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="83"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="50" t="s">
+      <c r="A82" s="61"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="D82" s="51"/>
-      <c r="E82" s="52"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="83"/>
     </row>
     <row r="83" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="71"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="50" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="D83" s="51"/>
-      <c r="E83" s="52"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="83"/>
     </row>
     <row r="84" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="72"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="55"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="68"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="58" t="s">
+      <c r="B86" s="70"/>
+      <c r="C86" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="60"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="73"/>
     </row>
     <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="65"/>
+      <c r="B87" s="75"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15" t="s">
         <v>120</v>
@@ -4084,77 +4088,77 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="56" t="s">
+      <c r="B88" s="75"/>
+      <c r="C88" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="57"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="77"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70" t="s">
+      <c r="A89" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="81" t="s">
+      <c r="C89" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="83"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="92"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="44" t="s">
+      <c r="A90" s="61"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="89"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="71"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="44" t="s">
+      <c r="A91" s="61"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="44" t="s">
+      <c r="A92" s="61"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="89"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="71"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="47" t="s">
+      <c r="A93" s="61"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="48"/>
-      <c r="E93" s="49"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="99"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="44" t="s">
+      <c r="A94" s="61"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="89"/>
     </row>
     <row r="95" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="71"/>
-      <c r="B95" s="74"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="65"/>
       <c r="C95" s="84" t="s">
         <v>186</v>
       </c>
@@ -4162,31 +4166,31 @@
       <c r="E95" s="86"/>
     </row>
     <row r="96" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="72"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="55"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="68"/>
     </row>
     <row r="98" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="66" t="s">
+      <c r="A99" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="58" t="s">
+      <c r="B99" s="70"/>
+      <c r="C99" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="59"/>
-      <c r="E99" s="60"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="73"/>
     </row>
     <row r="100" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="64" t="s">
+      <c r="A100" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="65"/>
+      <c r="B100" s="75"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15" t="s">
         <v>120</v>
@@ -4196,181 +4200,181 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="56" t="s">
+      <c r="B101" s="75"/>
+      <c r="C101" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="D101" s="54"/>
-      <c r="E101" s="57"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="77"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="70" t="s">
+      <c r="A102" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="61" t="s">
+      <c r="C102" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D102" s="62"/>
-      <c r="E102" s="63"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="80"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="71"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="50" t="s">
+      <c r="A103" s="61"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="52"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="83"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="71"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="50" t="s">
+      <c r="A104" s="61"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="52"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="83"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="71"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="50" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105" s="52"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="83"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="71"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="50" t="s">
+      <c r="A106" s="61"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="52"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="83"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="71"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="50" t="s">
+      <c r="A107" s="61"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="52"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="83"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="71"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="50" t="s">
+      <c r="A108" s="61"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="51"/>
-      <c r="E108" s="52"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="83"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="71"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="50" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D109" s="51"/>
-      <c r="E109" s="52"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="83"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="71"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="50" t="s">
+      <c r="A110" s="61"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="D110" s="51"/>
-      <c r="E110" s="52"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="83"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="71"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="50" t="s">
+      <c r="A111" s="61"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D111" s="51"/>
-      <c r="E111" s="52"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="83"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="71"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="50" t="s">
+      <c r="A112" s="61"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="51"/>
-      <c r="E112" s="52"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="83"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="71"/>
-      <c r="B113" s="69"/>
-      <c r="C113" s="50" t="s">
+      <c r="A113" s="61"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D113" s="51"/>
-      <c r="E113" s="52"/>
+      <c r="D113" s="82"/>
+      <c r="E113" s="83"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="71"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="50" t="s">
+      <c r="A114" s="61"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="D114" s="51"/>
-      <c r="E114" s="52"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="83"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="71"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="50" t="s">
+      <c r="A115" s="61"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="51"/>
-      <c r="E115" s="52"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="83"/>
     </row>
     <row r="116" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="71"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="78" t="s">
+      <c r="A116" s="61"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="80"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="59"/>
     </row>
     <row r="117" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="72"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="53"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="55"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="68"/>
     </row>
     <row r="118" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="66" t="s">
+      <c r="A119" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="67"/>
-      <c r="C119" s="58" t="s">
+      <c r="B119" s="70"/>
+      <c r="C119" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="D119" s="59"/>
-      <c r="E119" s="60"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="73"/>
     </row>
     <row r="120" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="64" t="s">
+      <c r="A120" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="65"/>
+      <c r="B120" s="75"/>
       <c r="C120" s="14"/>
       <c r="D120" s="15" t="s">
         <v>120</v>
@@ -4380,213 +4384,76 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="64" t="s">
+      <c r="A121" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="56" t="s">
+      <c r="B121" s="75"/>
+      <c r="C121" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="57"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="77"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="70" t="s">
+      <c r="A122" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="68" t="s">
+      <c r="B122" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="61" t="s">
+      <c r="C122" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="62"/>
-      <c r="E122" s="63"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="80"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="71"/>
-      <c r="B123" s="69"/>
-      <c r="C123" s="50" t="s">
+      <c r="A123" s="61"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="51"/>
-      <c r="E123" s="52"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="83"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="71"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="50" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="D124" s="51"/>
-      <c r="E124" s="52"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="83"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="71"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="47" t="s">
+      <c r="A125" s="61"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="D125" s="48"/>
-      <c r="E125" s="49"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="99"/>
     </row>
     <row r="126" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="71"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="78" t="s">
+      <c r="A126" s="61"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D126" s="79"/>
-      <c r="E126" s="80"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="59"/>
     </row>
     <row r="127" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="72"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C127" s="53"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="55"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="A102:A117"/>
-    <mergeCell ref="B102:B116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C25:E25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C24:E24"/>
@@ -4610,6 +4477,143 @@
     <mergeCell ref="C116:E116"/>
     <mergeCell ref="C101:E101"/>
     <mergeCell ref="C107:E107"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="A102:A117"/>
+    <mergeCell ref="B102:B116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4635,137 +4639,139 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="97" t="s">
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="92" t="s">
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="99"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="99"/>
-    </row>
-    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="93" t="s">
+      <c r="D7" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
+      <c r="C12" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="99"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="99" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="98"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="89"/>
-      <c r="C12" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="89"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="89"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="89"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="89"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="89"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="89"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="89"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="89"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="90"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="90"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
